--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997863466921915</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8316103575210663</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978493577446399</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9946819407396256</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99779158001068</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01428700653098466</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H2" t="n">
-        <v>1.126022314619639</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02145152175015077</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02014601486422653</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02079877472101724</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L2" t="n">
-        <v>0.281096265501975</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1195282666610064</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000899592874983</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1246168324303877</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P2" t="n">
-        <v>170.4968095779429</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q2" t="n">
-        <v>269.2257513922671</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_1</t>
+          <t>model_22_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980025559923966</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8314574670633337</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9976070058214744</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E3" t="n">
-        <v>0.994455323466345</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9976176688728806</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01335691727622784</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H3" t="n">
-        <v>1.127044693814492</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0238688543111649</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02100449250286795</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02243665999377206</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2667699783961744</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M3" t="n">
-        <v>0.115572130188155</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000841029055833</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1204922750375555</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P3" t="n">
-        <v>170.6314417605923</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q3" t="n">
-        <v>269.3603835749166</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_2</t>
+          <t>model_22_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9981034564212768</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8312920906159524</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9973739835673138</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9942405820371844</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9974510831366585</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0126821956437016</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H4" t="n">
-        <v>1.128150566879619</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0261931283464847</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02181798174998313</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02400555504823391</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L4" t="n">
-        <v>0.253886043001091</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M4" t="n">
-        <v>0.112615254933342</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000798544664726</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1174095194815695</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P4" t="n">
-        <v>170.7351123738851</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q4" t="n">
-        <v>269.4640541882093</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_3</t>
+          <t>model_22_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9981745905424927</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8311209459278937</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9971520479416093</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9940384825034274</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9972929122132329</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0122065214475894</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H5" t="n">
-        <v>1.129295012196717</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02840681911261215</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0225835806295325</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02549519987107233</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.242300695185247</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1104831274339634</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000768593455793</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O5" t="n">
-        <v>0.11518662290043</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P5" t="n">
-        <v>170.8115698503535</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q5" t="n">
-        <v>269.5405116646778</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_4</t>
+          <t>model_22_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9982226964201766</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8309489507753396</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9969423905824175</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9938495641782612</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9971438941711138</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01188483722200936</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H6" t="n">
-        <v>1.130445144573811</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0304980406486776</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02329924610082259</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02689864337475009</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2318760232691698</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1090176005148222</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000748338349399</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O6" t="n">
-        <v>0.113658705466282</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P6" t="n">
-        <v>170.864983748701</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q6" t="n">
-        <v>269.5939255630252</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_5</t>
+          <t>model_22_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9982530993353363</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8307797885357201</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9967456502417125</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9936736751894165</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9970043375793344</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01168153278834379</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H7" t="n">
-        <v>1.131576333249067</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03246042174076633</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02396555349046034</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02821297947354004</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2224980676446996</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1080811398364386</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000735537121964</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1126823777180788</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P7" t="n">
-        <v>170.8994921566269</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q7" t="n">
-        <v>269.6284339709512</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_6</t>
+          <t>model_22_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9982699929577611</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8306159316410655</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9965619773894571</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9935105491290784</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9968742669366202</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01156856505740137</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H8" t="n">
-        <v>1.132672045058114</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03429246153039195</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02458351201168253</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02943797743982942</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2140618003064856</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M8" t="n">
-        <v>0.107557264084772</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000728424017785</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1121361994910914</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P8" t="n">
-        <v>170.918927536329</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q8" t="n">
-        <v>269.6478693506533</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_7</t>
+          <t>model_22_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9982767342819991</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8304591382012111</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9963912955505652</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E9" t="n">
-        <v>0.993359769016248</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9967535564780862</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0115234857911808</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H9" t="n">
-        <v>1.133720523512388</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03599492281618648</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02515470128310434</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03057482172020311</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2064758365164316</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1073475001626997</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000725585565474</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1119175054845853</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P9" t="n">
-        <v>170.9267361668886</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q9" t="n">
-        <v>269.6556779812129</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_8</t>
+          <t>model_22_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9982759710758081</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8303104403813383</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9962334169365987</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E10" t="n">
-        <v>0.993220969438118</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9966420384584731</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01152858935449405</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H10" t="n">
-        <v>1.134714866518568</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03756967868873783</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02568050557133246</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03162509213003514</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1996475803732201</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1073712687570285</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000725906915449</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1119422859571825</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P10" t="n">
-        <v>170.9258505957</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q10" t="n">
-        <v>269.6547924100242</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_9</t>
+          <t>model_22_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9982697117447027</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8301705946003716</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9960877425012922</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9930934398297578</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9965392486767954</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01157044553041757</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H11" t="n">
-        <v>1.135650015899823</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03902270431846828</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02616361665751295</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03259316048799062</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1935078825199666</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1075660054590555</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000728542423283</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1121453130037754</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P11" t="n">
-        <v>170.9186024622705</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q11" t="n">
-        <v>269.6475442765948</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_10</t>
+          <t>model_22_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9982595922820463</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8300398304311691</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9959538002041044</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9929764753017811</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9964447964269979</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01163811442379705</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H12" t="n">
-        <v>1.136524436501393</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04035870806071202</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02660670482254438</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0334827064416282</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1879783850627534</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1078800928058419</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000732803249665</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1124727716991648</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P12" t="n">
-        <v>170.9069396817671</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q12" t="n">
-        <v>269.6358814960913</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_11</t>
+          <t>model_22_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9982468577460866</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8299182220224525</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D13" t="n">
-        <v>0.995830973310368</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9928695648636582</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9963582523504352</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01172327032439665</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H13" t="n">
-        <v>1.137337632490437</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04158384151836832</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02701170581446886</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03429777366641859</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1830062964481302</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1082740519441138</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000738165159542</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1128835024935608</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P13" t="n">
-        <v>170.8923589916786</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q13" t="n">
-        <v>269.6213008060029</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9982324314898492</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8298055457052663</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D14" t="n">
-        <v>0.995718506734048</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9927718115364261</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9962790361959856</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01181973876628312</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H14" t="n">
-        <v>1.138091099542287</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0427056362762266</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02738201759307564</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03504382693465112</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1785264252438453</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1087186219848427</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000744239372695</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1133469988013104</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P14" t="n">
-        <v>170.8759687364794</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.6049105508036</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_13</t>
+          <t>model_22_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9982170647061772</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8297015896067752</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9956157912068097</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9926827085007164</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9962067222165244</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01192249651945534</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H15" t="n">
-        <v>1.138786254451571</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04373016946445898</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02771956010510264</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03572487590869861</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1744965767167609</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1091901850875588</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000750709597399</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1138386373215793</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P15" t="n">
-        <v>170.8586563994454</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.5875982137696</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_14</t>
+          <t>model_22_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9982013045211415</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.829605946778504</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9955221144878695</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E16" t="n">
-        <v>0.992601610454686</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9961408070095703</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01202788494935747</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H16" t="n">
-        <v>1.139425818484616</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04466454530907864</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02802677790031652</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03634566160469758</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1708752547224891</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1096717144452364</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000757345464782</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1143406663809164</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P16" t="n">
-        <v>170.8410551582725</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q16" t="n">
-        <v>269.5699969725968</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_15</t>
+          <t>model_22_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9981855681388645</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8295181956650344</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9954368361625051</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9925279154312792</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.996080826836399</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01213311421010385</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H17" t="n">
-        <v>1.140012610584443</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04551515160904035</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02830595136647817</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03691055148775926</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1676125330925438</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1101504162956448</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000763971309952</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1148397475601462</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P17" t="n">
-        <v>170.8236337055549</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.5525755198792</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_16</t>
+          <t>model_22_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9981701098935338</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8294378409016467</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9953592136483708</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9924608489553811</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9960262338859807</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01223648356780841</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H18" t="n">
-        <v>1.140549943257216</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04628939523142947</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02856001439101058</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03742470481122002</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1646749147439583</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1106186402366636</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000770480044828</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1153279047636913</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P18" t="n">
-        <v>170.8066666667709</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q18" t="n">
-        <v>269.5356084810951</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_17</t>
+          <t>model_22_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9981551805781098</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8293644281605299</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9952887496386453</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9923999510248969</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9959766722968992</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01233631596879191</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H19" t="n">
-        <v>1.141040854595099</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04699223654939438</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02879070956619951</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03789147305779696</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1620360155542452</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1110689694234709</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000776766072375</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1157974053962909</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P19" t="n">
-        <v>170.790415697872</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q19" t="n">
-        <v>269.5193575121963</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_18</t>
+          <t>model_22_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9981409182192252</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8292974827055772</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9952247838758314</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9923448251305088</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9959317104071232</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01243168842832517</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H20" t="n">
-        <v>1.141488519160623</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04763026128309822</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02899953895928685</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03831492159612026</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1596576104139866</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1114974817129301</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000782771276116</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1162441603410551</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P20" t="n">
-        <v>170.7750130954851</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.5039549098094</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_19</t>
+          <t>model_22_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9981274020545805</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8292365162404279</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.995166777806346</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9922948378593365</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9958909424778665</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0125220710835408</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H21" t="n">
-        <v>1.141896202193801</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04820884122037245</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02918890208195146</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03869887165116195</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1575184550840111</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1119020602292058</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000788462292808</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1166659626023617</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P21" t="n">
-        <v>170.7605250099657</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q21" t="n">
-        <v>269.4894668242899</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_20</t>
+          <t>model_22_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9981146909556591</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8291810665650362</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9951142345569572</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9922495357507154</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9958540086265467</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01260707026055747</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H22" t="n">
-        <v>1.142266994428468</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04873293240954096</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02936051674605666</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0390467125767533</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1555906691996742</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1122812106300848</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000793814334459</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1170612542207556</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P22" t="n">
-        <v>170.74699498122</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q22" t="n">
-        <v>269.4759367955442</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_21</t>
+          <t>model_22_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9981028038729136</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.829130697144669</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9950666439558576</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9922085426590841</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F23" t="n">
-        <v>0.995820560218693</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01268655923761125</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H23" t="n">
-        <v>1.142603814974394</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04920762354519838</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02951580787631699</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03936172779264964</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L23" t="n">
-        <v>0.153860978647671</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1126346271694955</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000798819421931</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1174297164339221</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P23" t="n">
-        <v>170.734424347378</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.4633661617022</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_22</t>
+          <t>model_22_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9980917639379497</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8290849692103371</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9950236356739504</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E24" t="n">
-        <v>0.992171509958659</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9957903387045878</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01276038333354933</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H24" t="n">
-        <v>1.142909597881828</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04963660846469035</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02965609614628531</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03964635230548783</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1522975030909182</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11296186672302</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N24" t="n">
-        <v>1.0008034678156</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1177708872527194</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P24" t="n">
-        <v>170.7228199194051</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q24" t="n">
-        <v>269.4517617337293</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_23</t>
+          <t>model_22_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9980815231255943</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8290435192225417</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9949846943470254</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9921379929209434</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9957629802664559</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01282886369292502</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H25" t="n">
-        <v>1.143186774141076</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05002502765408765</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02978306628839191</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03990401253052449</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1508953024743479</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1132645738654634</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000807779736592</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1180864812649069</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P25" t="n">
-        <v>170.7121153413791</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q25" t="n">
-        <v>269.4410571557033</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.998072064883928</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.829005988336287</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9949494752179249</v>
+        <v>0.9825069475759221</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9921077055933857</v>
+        <v>0.9778771248369326</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9957382351414708</v>
+        <v>0.9823676660927012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01289211099849875</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H26" t="n">
-        <v>1.143437743350275</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05037631988413584</v>
+        <v>0.1970878225799122</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02989780155577078</v>
+        <v>0.09166454694801439</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04013706071995331</v>
+        <v>0.1443761847639633</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1496316135054475</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M26" t="n">
-        <v>0.113543432212078</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000811762154136</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1183772111886532</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P26" t="n">
-        <v>170.7022794103835</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q26" t="n">
-        <v>269.4312212247078</v>
+        <v>263.629189727047</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_7.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_0</t>
+          <t>model_22_7_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956203680320784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658814471715933</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956698498318202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843191611187505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.993716296246833</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928661913584269</v>
       </c>
       <c r="H2" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565551840780367</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030378986399438</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.08000346812556333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152085715331926</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556289092433721</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711333373011895</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844055565441</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784188377649463</v>
       </c>
       <c r="P2" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0612491041098</v>
       </c>
       <c r="Q2" t="n">
-        <v>263.629189727047</v>
+        <v>267.790190918434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_22</t>
+          <t>model_22_7_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.995620351041414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658813344954201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956697431171795</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843195051443553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937162470833139</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928673275249392</v>
       </c>
       <c r="H3" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565552594246457</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030404379635022</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.08000171291069808</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152157320989697</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556229997928486</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711336692544571</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844062719405</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784191838501518</v>
       </c>
       <c r="P3" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0612413451786</v>
       </c>
       <c r="Q3" t="n">
-        <v>263.629189727047</v>
+        <v>267.7901831595029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_21</t>
+          <t>model_22_7_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201798067348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658808386251837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956692574723895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843204010220625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937160414561328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928787779958218</v>
       </c>
       <c r="H4" t="n">
-        <v>1.903646992214302</v>
+        <v>1.56555591013301</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030519941028281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999714215245333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152456812764069</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556098896724275</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711370146975288</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844134818217</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.178422671715661</v>
       </c>
       <c r="P4" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611631510889</v>
       </c>
       <c r="Q4" t="n">
-        <v>263.629189727047</v>
+        <v>267.7901049654131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_20</t>
+          <t>model_22_7_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201485100975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658808046751798</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956692152119884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843203194307938</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937160040700094</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928808708033987</v>
       </c>
       <c r="H5" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565556137156843</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030529997083514</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999755843021256</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152511264886579</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556123355414876</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711376261385552</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844147995749</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784233091869978</v>
       </c>
       <c r="P5" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611488598513</v>
       </c>
       <c r="Q5" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900906741755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_19</t>
+          <t>model_22_7_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201396817983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658807583653183</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956691726275945</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843204656892116</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937159891560362</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928814611521677</v>
       </c>
       <c r="H6" t="n">
-        <v>1.903646992214302</v>
+        <v>1.5655564468311</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030540130234326</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999681222136767</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152532986782816</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556105193917964</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711377986162519</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844151712927</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784234890074271</v>
       </c>
       <c r="P6" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611448285319</v>
       </c>
       <c r="Q6" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900866428561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_18</t>
+          <t>model_22_7_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201067508992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.765880724792862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956691333040635</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843203454086787</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937159302846117</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928836632429144</v>
       </c>
       <c r="H7" t="n">
-        <v>1.903646992214302</v>
+        <v>1.56555667133027</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030549487447898</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999742589132806</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152618731805895</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556087863776723</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711384419827744</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844165578569</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784241597633944</v>
       </c>
       <c r="P7" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611297911686</v>
       </c>
       <c r="Q7" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900716054928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_17</t>
+          <t>model_22_7_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201135767589</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658806626964689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956690988929473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843205808493071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937159434117204</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928832067973545</v>
       </c>
       <c r="H8" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565557086569136</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030557675729983</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999622467582253</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152599612441038</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556066647380464</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711383086270735</v>
       </c>
       <c r="N8" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844162704522</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784240207304652</v>
       </c>
       <c r="P8" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611329080779</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900747224022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_16</t>
+          <t>model_22_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201248308227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658806610769191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956691137678538</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.984320582294653</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937159443898183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928824542375938</v>
       </c>
       <c r="H9" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565557097399074</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030554136178114</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.0799962173016836</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152598187861562</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556092610942221</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711380887580534</v>
       </c>
       <c r="N9" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844157965969</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784237915011659</v>
       </c>
       <c r="P9" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611380470597</v>
       </c>
       <c r="Q9" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900798613839</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_15</t>
+          <t>model_22_7_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956201057685861</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.765880647068682</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956690632805201</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.984320682978219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937159207821519</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928837289302367</v>
       </c>
       <c r="H10" t="n">
-        <v>1.903646992214302</v>
+        <v>1.56555719107222</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030566149869514</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999570361523368</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152632571943842</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556071438911968</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711384611740554</v>
       </c>
       <c r="N10" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844165992174</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.178424179771688</v>
       </c>
       <c r="P10" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611293426129</v>
       </c>
       <c r="Q10" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900711569371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_14</t>
+          <t>model_22_7_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200903713276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658806133959216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956690423782513</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843206710601414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.993715913552043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928847585456169</v>
       </c>
       <c r="H11" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565557416242123</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030571123659715</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999576442113453</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152643102449066</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556084282777416</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711387619873466</v>
       </c>
       <c r="N11" t="n">
-        <v>1.014768076435168</v>
+        <v>1.00184417247523</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784244933912238</v>
       </c>
       <c r="P11" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611223117439</v>
       </c>
       <c r="Q11" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900641260681</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_13</t>
+          <t>model_22_7_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200864405734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658806085675354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956690044585184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843208013105313</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937158934572028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928850213953301</v>
       </c>
       <c r="H12" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565557448529564</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.103058014683316</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999509988507252</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152672370171945</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.255608934100666</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711388387816541</v>
       </c>
       <c r="N12" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844174130285</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.178424573454824</v>
       </c>
       <c r="P12" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0611205168427</v>
       </c>
       <c r="Q12" t="n">
-        <v>263.629189727047</v>
+        <v>267.790062331167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_23</t>
+          <t>model_22_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200317791977</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805346378931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956689000631185</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843208167280252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.993715822304769</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928886766040467</v>
       </c>
       <c r="H13" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565557942897423</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.103060498819481</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999502122518803</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152776002233451</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556078030354478</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711399066857426</v>
       </c>
       <c r="N13" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844197145601</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784256868218003</v>
       </c>
       <c r="P13" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610955569735</v>
       </c>
       <c r="Q13" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900373712978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_12</t>
+          <t>model_22_7_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200380243972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805302641073</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956689059397131</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843208283971225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.993715829149076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928882589872623</v>
       </c>
       <c r="H14" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565557972144948</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030603589832301</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999496168958094</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152766033640553</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556075257957077</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711397846753531</v>
       </c>
       <c r="N14" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844194516043</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.178425559617176</v>
       </c>
       <c r="P14" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610984086856</v>
       </c>
       <c r="Q14" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900402230098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_10</t>
+          <t>model_22_7_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.995620025796247</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805232700318</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688979393939</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207920264128</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937158224936872</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928890766842307</v>
       </c>
       <c r="H15" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558018914364</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030605493544754</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999514725254345</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152775727077887</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556074670931795</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711400235725795</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844199664738</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784258086847519</v>
       </c>
       <c r="P15" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610928250147</v>
       </c>
       <c r="Q15" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900346393389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_9</t>
+          <t>model_22_7_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200212919306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805196462247</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688920187098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207850642638</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157993056556</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928893778880747</v>
       </c>
       <c r="H16" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558043146778</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030606902398545</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.0799951827733516</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152809499970621</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556063631930943</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.171140111571798</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844201561292</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784259004302793</v>
       </c>
       <c r="P16" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610907682381</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900325825623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_8</t>
+          <t>model_22_7_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200087543254</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805156986241</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688756943388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207608208365</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157926063045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928902162783093</v>
       </c>
       <c r="H17" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558069544402</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030610786857105</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999530646305171</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152819257438111</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.255609512431081</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711403565142685</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844206840284</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784261558004579</v>
       </c>
       <c r="P17" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610850432846</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900268576088</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_7</t>
+          <t>model_22_7_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200087543254</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805156986241</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688756943388</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207608208365</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157926063045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928902162783093</v>
       </c>
       <c r="H18" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558069544402</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030610786857105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999530646305171</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152819257438111</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.255609512431081</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711403565142685</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844206840284</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784261558004579</v>
       </c>
       <c r="P18" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610850432846</v>
       </c>
       <c r="Q18" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900268576088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_6</t>
+          <t>model_22_7_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200087543254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805152635638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688756943388</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207608208365</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157926063045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928902162783093</v>
       </c>
       <c r="H19" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558072453652</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030610786857105</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999530646305171</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152819257438111</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.255609512431081</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711403565142685</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844206840284</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784261558004579</v>
       </c>
       <c r="P19" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610850432846</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900268576088</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_5</t>
+          <t>model_22_7_17</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.995620006427298</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805092967442</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688761016281</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207375353881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157888606127</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928903718867434</v>
       </c>
       <c r="H20" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558112353802</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030610689940739</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999542526515464</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152824712961428</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556088387151235</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711404019764893</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844207820085</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784262031980995</v>
       </c>
       <c r="P20" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610839807132</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900257950374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_4</t>
+          <t>model_22_7_16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.995620022450548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805080963582</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688851582788</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843208167947178</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157987149332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928893004112714</v>
       </c>
       <c r="H21" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558120380788</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030608534869406</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999502088492275</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152810360345688</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556078664200139</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711400889363072</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844201073453</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784258768311488</v>
       </c>
       <c r="P21" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610912972898</v>
       </c>
       <c r="Q21" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900331116141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_3</t>
+          <t>model_22_7_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200039445411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658805077223302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688477751319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843208469893832</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157734658412</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928905379088079</v>
       </c>
       <c r="H22" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558122881916</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030617430359763</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999486683207088</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152847135130632</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556108003833327</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711404504811203</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844208865456</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784262537676731</v>
       </c>
       <c r="P22" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610828470329</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900246613571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_2</t>
+          <t>model_22_7_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200062838074</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.765880505845582</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688727930386</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207517917082</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.993715777228814</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928903814819634</v>
       </c>
       <c r="H23" t="n">
-        <v>1.903646992214302</v>
+        <v>1.56555813543174</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.103061147723472</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999535252956527</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152841654437956</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556096108395213</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711404047798074</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844207880502</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784262061207607</v>
       </c>
       <c r="P23" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610839151923</v>
       </c>
       <c r="Q23" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900257295165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_1</t>
+          <t>model_22_7_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200050782084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658804991158661</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688695797004</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9843207541149432</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157750108038</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928904621004281</v>
       </c>
       <c r="H24" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558180433381</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.1030612241863199</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999534067644588</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.0915284488492438</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556105739353327</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711404283331172</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844208388123</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784262306767836</v>
       </c>
       <c r="P24" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610833646897</v>
       </c>
       <c r="Q24" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900251790139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_11</t>
+          <t>model_22_7_21</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9956200062837985</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7658804958721417</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9956688727930386</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.984320749468471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9937157768219036</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.02928903814825543</v>
       </c>
       <c r="H25" t="n">
-        <v>1.903646992214302</v>
+        <v>1.565558202124181</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1970878225799122</v>
+        <v>0.103061147723472</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.07999536438269578</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.09152842247094481</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.2556096065725185</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.1711404047799801</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014768076435168</v>
+        <v>1.001844207880506</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.1784262061209407</v>
       </c>
       <c r="P25" t="n">
-        <v>164.9002479127228</v>
+        <v>169.0610839151882</v>
       </c>
       <c r="Q25" t="n">
-        <v>263.629189727047</v>
+        <v>267.7900257295125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_24</t>
+          <t>model_22_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9649258184664765</v>
+        <v>0.9901615013272524</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7153214174682279</v>
+        <v>0.7656847262266357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9825069475759221</v>
+        <v>0.9999999999998983</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9778771248369326</v>
+        <v>0.9690034322741814</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9823676660927012</v>
+        <v>0.9945710135778776</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2345412134164277</v>
+        <v>0.06579008592678383</v>
       </c>
       <c r="H26" t="n">
-        <v>1.903646992214302</v>
+        <v>1.566867314645116</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1970878225799122</v>
+        <v>2.420942238339764e-12</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09166454694801439</v>
+        <v>0.15814414884523</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1443761847639633</v>
+        <v>0.07907207442361462</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4038156865157607</v>
+        <v>0.4256798931132202</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4842945523299097</v>
+        <v>0.2564957814990021</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014768076435168</v>
+        <v>1.004142525756946</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5049119740505222</v>
+        <v>0.2674153379368795</v>
       </c>
       <c r="P26" t="n">
-        <v>164.9002479127228</v>
+        <v>167.4425722436168</v>
       </c>
       <c r="Q26" t="n">
-        <v>263.629189727047</v>
+        <v>266.1715140579411</v>
       </c>
     </row>
   </sheetData>
